--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3DKDDH\sky3d-cfg\LubanTools\DesignerConfigs\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E06A8-FC78-47FB-96A3-8F526AD1B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
   <si>
     <t>##var</t>
   </si>
@@ -137,30 +144,33 @@
     <t>Task_任务表.xlsx</t>
   </si>
   <si>
+    <t>GameConfig_游戏配置.xlsx</t>
+  </si>
+  <si>
+    <t>Prosperity_繁荣度.xlsx</t>
+  </si>
+  <si>
+    <t>Employee_员工表.xlsx</t>
+  </si>
+  <si>
+    <t>Tourist_游客.xlsx</t>
+  </si>
+  <si>
+    <t>Island_岛屿表.xlsx</t>
+  </si>
+  <si>
+    <t>IslandLevel_岛屿等级表.xlsx</t>
+  </si>
+  <si>
     <t>BuildingUnlock_建筑解锁表.xlsx</t>
   </si>
   <si>
-    <t>GameConfig_游戏配置.xlsx</t>
-  </si>
-  <si>
-    <t>Prosperity_繁荣度.xlsx</t>
-  </si>
-  <si>
-    <t>Employee_员工表.xlsx</t>
-  </si>
-  <si>
-    <t>Tourist_游客.xlsx</t>
-  </si>
-  <si>
-    <t>Island_岛屿表.xlsx</t>
-  </si>
-  <si>
-    <t>IslandLevel_岛屿等级表.xlsx</t>
-  </si>
-  <si>
     <t>GuideStep_新手引导表.xlsx</t>
   </si>
   <si>
+    <t>BridgeConfig_桥梁表.xlsx</t>
+  </si>
+  <si>
     <t>zstime.TbAdjacencyCondition</t>
   </si>
   <si>
@@ -369,16 +379,19 @@
   </si>
   <si>
     <t>Tile_地块表.xlsx</t>
-  </si>
-  <si>
-    <t>BridgeConfig_桥梁表.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,27 +404,356 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -419,25 +761,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -759,26 +1387,26 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +1444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -851,7 +1479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -877,7 +1505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -896,7 +1524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="B5" t="str">
         <f t="shared" ref="B5:B8" si="0">"zs"&amp;".Tb"&amp;RIGHT(C5,LEN(C5))</f>
         <v>zs.TbBuild</v>
@@ -912,7 +1540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>zs.TbBuildingLevel</v>
@@ -928,7 +1556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>zs.TbItem</v>
@@ -944,7 +1572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -963,7 +1591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -982,7 +1610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1001,10 +1629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
+    <row r="11" spans="1:12">
       <c r="B11" t="str">
         <f t="shared" si="2"/>
         <v>zs.TbGameConfig</v>
@@ -1017,10 +1642,10 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1036,10 +1661,10 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1055,10 +1680,10 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1074,10 +1699,10 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="B15" t="str">
         <f t="shared" ref="B15:B18" si="3">"zs"&amp;".Tb"&amp;RIGHT(C15,LEN(C15))</f>
         <v>zs.TbIsland</v>
@@ -1090,26 +1715,26 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" t="str">
         <f t="shared" si="3"/>
         <v>zs.TbIslandLevel</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(FIND("_",LEFT(E16,FIND("@",SUBSTITUTE(E16,"_","@",LEN(E16)-LEN(SUBSTITUTE(E16,"_",""))))-1))),SUBSTITUTE(PROPER(SUBSTITUTE(LEFT(E16,FIND("@",SUBSTITUTE(E16,"_","@",LEN(E16)-LEN(SUBSTITUTE(E16,"_",""))))-1),"_"," "))," ",""),UPPER(LEFT(LEFT(E16,FIND("@",SUBSTITUTE(E16,"_","@",LEN(E16)-LEN(SUBSTITUTE(E16,"_",""))))-1),1))&amp;MID(LEFT(E16,FIND("@",SUBSTITUTE(E16,"_","@",LEN(E16)-LEN(SUBSTITUTE(E16,"_",""))))-1),2,999))</f>
         <v>IslandLevel</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="str">
         <f t="shared" si="3"/>
         <v>zs.TbBuildingUnlock</v>
@@ -1122,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="str">
         <f t="shared" si="3"/>
         <v>zs.TbGuideStep</v>
@@ -1141,76 +1766,77 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" t="str">
         <f t="shared" ref="B19" si="6">"zs"&amp;".Tb"&amp;RIGHT(C19,LEN(C19))</f>
         <v>zs.TbBridgeConfig</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISNUMBER(FIND("_",LEFT(E19,FIND("@",SUBSTITUTE(E19,"_","@",LEN(E19)-LEN(SUBSTITUTE(E19,"_",""))))-1))),SUBSTITUTE(PROPER(SUBSTITUTE(LEFT(E19,FIND("@",SUBSTITUTE(E19,"_","@",LEN(E19)-LEN(SUBSTITUTE(E19,"_",""))))-1),"_"," "))," ",""),UPPER(LEFT(LEFT(E19,FIND("@",SUBSTITUTE(E19,"_","@",LEN(E19)-LEN(SUBSTITUTE(E19,"_",""))))-1),1))&amp;MID(LEFT(E19,FIND("@",SUBSTITUTE(E19,"_","@",LEN(E19)-LEN(SUBSTITUTE(E19,"_",""))))-1),2,999))</f>
         <v>BridgeConfig</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A5 A7 D7:L9 F10:L10 D10 A1:L3 D4:L5" numberStoredAsText="1"/>
+    <ignoredError sqref="D4:L5 A1:L3 D10 F10:L10 D7:L9 A7 A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -1219,68 +1845,68 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1289,68 +1915,68 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1359,26 +1985,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1387,54 +2013,54 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
@@ -1443,92 +2069,92 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3DKDDH\sky3d-cfg\LubanTools\DesignerConfigs\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B76655-52D7-40DF-B8A1-FC9D3D61EBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>##var</t>
   </si>
@@ -137,30 +144,36 @@
     <t>Task_任务表.xlsx</t>
   </si>
   <si>
+    <t>GameConfig_游戏配置.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>Prosperity_繁荣度.xlsx</t>
+  </si>
+  <si>
+    <t>Employee_员工表.xlsx</t>
+  </si>
+  <si>
+    <t>Tourist_游客.xlsx</t>
+  </si>
+  <si>
+    <t>Island_岛屿表.xlsx</t>
+  </si>
+  <si>
+    <t>IslandLevel_岛屿等级表.xlsx</t>
+  </si>
+  <si>
     <t>BuildingUnlock_建筑解锁表.xlsx</t>
   </si>
   <si>
-    <t>GameConfig_游戏配置.xlsx</t>
-  </si>
-  <si>
-    <t>Prosperity_繁荣度.xlsx</t>
-  </si>
-  <si>
-    <t>Employee_员工表.xlsx</t>
-  </si>
-  <si>
-    <t>Tourist_游客.xlsx</t>
-  </si>
-  <si>
-    <t>Island_岛屿表.xlsx</t>
-  </si>
-  <si>
-    <t>IslandLevel_岛屿等级表.xlsx</t>
-  </si>
-  <si>
     <t>GuideStep_新手引导表.xlsx</t>
   </si>
   <si>
+    <t>BridgeConfig_桥梁表.xlsx</t>
+  </si>
+  <si>
     <t>zstime.TbAdjacencyCondition</t>
   </si>
   <si>
@@ -369,16 +382,19 @@
   </si>
   <si>
     <t>Tile_地块表.xlsx</t>
-  </si>
-  <si>
-    <t>BridgeConfig_桥梁表.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,27 +407,356 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -419,9 +764,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -430,17 +1017,61 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -762,26 +1393,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="60.5" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +1453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -854,7 +1488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -880,7 +1514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -899,7 +1533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="B5" t="str">
         <f t="shared" ref="B5:B8" si="0">"zs"&amp;".Tb"&amp;RIGHT(C5,LEN(C5))</f>
         <v>zs.TbBuild</v>
@@ -915,7 +1549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>zs.TbBuildingLevel</v>
@@ -931,7 +1565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>zs.TbItem</v>
@@ -947,7 +1581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>zs.TbMapBoundary</v>
@@ -963,7 +1597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="B9" t="str">
         <f t="shared" ref="B9:B14" si="2">"zs"&amp;".Tb"&amp;RIGHT(C9,LEN(C9))</f>
         <v>zs.TbQuestCondition</v>
@@ -979,7 +1613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="B10" t="str">
         <f t="shared" si="2"/>
         <v>zs.TbTask</v>
@@ -995,7 +1629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="B11" t="str">
         <f t="shared" si="2"/>
         <v>zs.TbGameConfig</v>
@@ -1008,10 +1642,13 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="B12" t="str">
         <f t="shared" si="2"/>
         <v>zs.TbProsperity</v>
@@ -1027,7 +1664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="B13" t="str">
         <f t="shared" si="2"/>
         <v>zs.TbEmployee</v>
@@ -1043,7 +1680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="B14" t="str">
         <f t="shared" si="2"/>
         <v>zs.TbTourist</v>
@@ -1059,7 +1696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="B15" t="str">
         <f t="shared" ref="B15:B18" si="3">"zs"&amp;".Tb"&amp;RIGHT(C15,LEN(C15))</f>
         <v>zs.TbIsland</v>
@@ -1075,7 +1712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="B16" t="str">
         <f t="shared" si="3"/>
         <v>zs.TbIslandLevel</v>
@@ -1091,7 +1728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" t="str">
         <f t="shared" si="3"/>
         <v>zs.TbBuildingUnlock</v>
@@ -1104,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="str">
         <f t="shared" si="3"/>
         <v>zs.TbGuideStep</v>
@@ -1120,10 +1757,10 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="str">
         <f t="shared" ref="B19" si="6">"zs"&amp;".Tb"&amp;RIGHT(C19,LEN(C19))</f>
         <v>zs.TbBridgeConfig</v>
@@ -1136,63 +1773,64 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A5 A7 D7:L9 F10:L10 A1:L3 D4:L5" numberStoredAsText="1"/>
+    <ignoredError sqref="D4:L5 A1:L3 F10:L10 D7:L9 A7 A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -1201,68 +1839,68 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1271,68 +1909,68 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1341,26 +1979,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1369,54 +2007,54 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
@@ -1425,92 +2063,92 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>